--- a/biology/Zoologie/Idiosoma_rhaphiduca/Idiosoma_rhaphiduca.xlsx
+++ b/biology/Zoologie/Idiosoma_rhaphiduca/Idiosoma_rhaphiduca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Idiosoma rhaphiduca est une espèce d'araignées mygalomorphes de la famille des Idiopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Idiosoma rhaphiduca est une espèce d'araignées mygalomorphes de la famille des Idiopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Australie-Occidentale[1]. Elle se rencontre dans la région de Perth.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Australie-Occidentale. Elle se rencontre dans la région de Perth.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle mesure 7,2 mm de long sur 6,3 mm et l'abdomen 7,2 mm de long sur 4,5 mm et la carapace de la femelle mesure 9,5 mm de long sur 6,3 mm et l'abdomen 10,3 mm de long sur 6,3 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle mesure 7,2 mm de long sur 6,3 mm et l'abdomen 7,2 mm de long sur 4,5 mm et la carapace de la femelle mesure 9,5 mm de long sur 6,3 mm et l'abdomen 10,3 mm de long sur 6,3 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rainbow &amp; Pulleine, 1918 : Australian trap-door spiders. Records of the Australian Museum, vol. 12, p. 81-169 (texte intégral).</t>
         </is>
